--- a/Execucoes Gerais/novo_final_AGEOs1234.xlsx
+++ b/Execucoes Gerais/novo_final_AGEOs1234.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14340" windowHeight="12360" activeTab="5"/>
+    <workbookView windowWidth="19485" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -155,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -177,15 +177,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,9 +224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,17 +255,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,61 +308,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +330,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,19 +456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,61 +486,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,73 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,15 +521,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,6 +535,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,45 +616,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -626,118 +626,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,28 +746,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2146,7 +2146,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -2156,7 +2156,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.250771604938272"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -3672,7 +3672,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -3682,7 +3682,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.248456790123457"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -5197,7 +5197,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -5207,7 +5207,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.248456790123457"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -6721,7 +6721,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -6731,8 +6731,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.257716049382716"/>
+              <c:y val="0.920147067053339"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8245,7 +8245,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -8255,7 +8255,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.253086419753086"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -9769,7 +9769,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -9779,8 +9779,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.244753086419753"/>
+              <c:y val="0.920147067053339"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -13368,15 +13368,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -13384,7 +13384,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="685800" y="7423150"/>
+        <a:off x="695325" y="7413625"/>
         <a:ext cx="4114800" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -13533,6 +13533,48 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>955040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2602865" cy="1737360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15310,7 +15352,7 @@
   <sheetPr/>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -16062,7 +16104,7 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
@@ -16808,7 +16850,7 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
@@ -17554,7 +17596,7 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
@@ -18300,7 +18342,7 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E40" sqref="E28:E40"/>
     </sheetView>
   </sheetViews>
@@ -19046,7 +19088,7 @@
   <sheetPr/>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
